--- a/AutomatingMicrosoftExcel/StudentScores.xlsx
+++ b/AutomatingMicrosoftExcel/StudentScores.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -94,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,8 +154,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,182 +289,182 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>90.87</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C12" s="1" t="n">
+        <v>74.98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>87</v>
       </c>
     </row>
